--- a/team_specific_matrix/Bethany (WV)_B.xlsx
+++ b/team_specific_matrix/Bethany (WV)_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,13 +793,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1506849315068493</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.6027397260273972</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.5316455696202531</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1277,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1401,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.06081081081081081</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02027027027027027</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.06081081081081081</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.1689189189189189</v>
       </c>
     </row>
   </sheetData>
